--- a/Documentos/Planilha de Concorrentes.xlsx
+++ b/Documentos/Planilha de Concorrentes.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE421C31-8B7B-45AE-A2A4-36B73EF73499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\Faculdade\Semestre 4\KnowU\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64D5A6C-4633-4C1C-8EDE-D44D86F5EA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +159,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,9 +288,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -296,7 +316,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,17 +614,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -625,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -648,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -671,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -694,30 +714,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="C6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -740,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -763,7 +783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -786,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
@@ -832,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -855,7 +875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
@@ -878,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -901,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
@@ -924,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>21</v>
       </c>
@@ -947,7 +967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
@@ -970,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -993,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
